--- a/GameMaster/RPGTale/Data/Data_Excel/LeaderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/LeaderMetaData.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E9DC26-F047-4B8C-916A-AF55F2B483AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C9867-FFC0-43B5-8203-D2835454EB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1980" windowWidth="21030" windowHeight="12945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderPresetData" sheetId="1" r:id="rId1"/>
     <sheet name="LeaderSpeciesData" sheetId="6" r:id="rId2"/>
     <sheet name="LeaderSkillData" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderDutyData" sheetId="4" r:id="rId4"/>
+    <sheet name="LeaderCreedData" sheetId="8" r:id="rId5"/>
+    <sheet name="LeaderAttributeData" sheetId="9" r:id="rId6"/>
+    <sheet name="LeaderBirthlandData" sheetId="10" r:id="rId7"/>
+    <sheet name="LeaderStoryData" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>SkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +180,308 @@
   </si>
   <si>
     <t>LeaderDesc_3</t>
+  </si>
+  <si>
+    <t>CreedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreedName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreedDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderCreed_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderCreed_Name_2</t>
+  </si>
+  <si>
+    <t>LeaderCreed_Name_3</t>
+  </si>
+  <si>
+    <t>LeaderCreed_Desc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderCreed_Desc_2</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Leader/LeaderCreed/LeaderCreed_Icon_001</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Leader/LeaderCreed/LeaderCreed_Icon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampCreedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSkillIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSkill_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSkill_Name_2</t>
+  </si>
+  <si>
+    <t>LeaderSkill_Name_3</t>
+  </si>
+  <si>
+    <t>LeaderSkill_Desc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSkill_Desc_2</t>
+  </si>
+  <si>
+    <t>LeaderSkill_Desc_3</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Leader/LeaderSkill/LeaderSkill_Icon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1,3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1,3:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderCreed_Desc_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_MaleGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_FemaleGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Human_Male</t>
+  </si>
+  <si>
+    <t>Human_Female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderAttribute_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderAttribute_Name_2</t>
+  </si>
+  <si>
+    <t>LeaderAttribute_Name_3</t>
+  </si>
+  <si>
+    <t>LeaderAttribute_Desc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderAttribute_Desc_2</t>
+  </si>
+  <si>
+    <t>LeaderAttribute_Desc_3</t>
+  </si>
+  <si>
+    <t>LandID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandIconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandBGPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderBirthland_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderBirthland_Name_2</t>
+  </si>
+  <si>
+    <t>LeaderBirthland_Name_3</t>
+  </si>
+  <si>
+    <t>LeaderBirthland_Desc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderBirthland_Desc_2</t>
+  </si>
+  <si>
+    <t>LeaderBirthland_Desc_3</t>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age_Devide_Young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age_Devide_Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age_Devide_Aged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age_Devide_Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryYearStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryYearEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkAttributeParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:50,1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthlandLimitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthlandID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Leader/Attribute/Leader_Attribute_Icon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Leader/Attribute/Leader_Attribute_Icon_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_Story_Content_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_Story_Content_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_Story_Content_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_Story_Content_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,9 +524,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,18 +827,21 @@
     <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
+    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -543,31 +858,49 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -584,22 +917,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -607,8 +940,26 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -625,22 +976,22 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
+      <c r="J3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -648,8 +999,26 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -666,27 +1035,45 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -699,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5133CDEF-DCC1-4F87-B0C5-4B50465CCAF0}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,13 +1097,15 @@
     <col min="1" max="1" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="17" width="9" style="1"/>
+    <col min="4" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -727,13 +1116,31 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -744,10 +1151,28 @@
         <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -758,15 +1183,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE2D68-7C8E-42E5-B36E-1D37C8255EE2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -794,24 +1223,70 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
         <v>10</v>
       </c>
     </row>
@@ -826,7 +1301,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,4 +1341,407 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97737733-1482-4BD2-B2E8-52EE8C18125F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649646F2-D282-4974-ADE1-B4EFA75C975D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0C1C9-703A-4B86-882B-D3F3C9801668}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FDF19-1439-4870-B1B6-4231A5BCF88B}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1020</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1021</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1030</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1045</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1030</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/LeaderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/LeaderMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C9867-FFC0-43B5-8203-D2835454EB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611E27A-4DFA-4806-904C-919BFCF25A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
   <si>
     <t>SkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,36 @@
   <si>
     <t>1000,2000,3000,4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderName_4</t>
+  </si>
+  <si>
+    <t>LeaderName_5</t>
+  </si>
+  <si>
+    <t>LeaderName_6</t>
+  </si>
+  <si>
+    <t>LeaderName_7</t>
+  </si>
+  <si>
+    <t>LeaderName_8</t>
+  </si>
+  <si>
+    <t>LeaderDesc_4</t>
+  </si>
+  <si>
+    <t>LeaderDesc_5</t>
+  </si>
+  <si>
+    <t>LeaderDesc_6</t>
+  </si>
+  <si>
+    <t>LeaderDesc_7</t>
+  </si>
+  <si>
+    <t>LeaderDesc_8</t>
   </si>
 </sst>
 </file>
@@ -815,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,6 +1104,301 @@
         <v>3</v>
       </c>
       <c r="S4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1">
         <v>3</v>
       </c>
     </row>
